--- a/optimize/Axiory/covid/MA55/NIKKEI/M5/matrix_NIKKEI_M5_MA55_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA55/NIKKEI/M5/matrix_NIKKEI_M5_MA55_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6112</v>
+        <v>6122</v>
       </c>
       <c r="C2">
-        <v>4902</v>
+        <v>4912</v>
       </c>
       <c r="D2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E2">
-        <v>-132</v>
+        <v>-122</v>
       </c>
       <c r="F2">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="G2">
-        <v>5854</v>
+        <v>5864</v>
       </c>
       <c r="H2">
-        <v>6690</v>
+        <v>6700</v>
       </c>
       <c r="I2">
-        <v>-3230</v>
+        <v>-3220</v>
       </c>
       <c r="J2">
-        <v>6758</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4122</v>
+        <v>4132</v>
       </c>
       <c r="C3">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="D3">
-        <v>4696</v>
+        <v>4706</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>4624</v>
+        <v>4634</v>
       </c>
       <c r="G3">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H3">
-        <v>3244</v>
+        <v>3254</v>
       </c>
       <c r="I3">
-        <v>3586</v>
+        <v>3596</v>
       </c>
       <c r="J3">
-        <v>2776</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>6450</v>
+        <v>6460</v>
       </c>
       <c r="C4">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D4">
-        <v>4490</v>
+        <v>4500</v>
       </c>
       <c r="E4">
-        <v>2278</v>
+        <v>2288</v>
       </c>
       <c r="F4">
-        <v>-2844</v>
+        <v>-2834</v>
       </c>
       <c r="G4">
-        <v>1564</v>
+        <v>1574</v>
       </c>
       <c r="H4">
-        <v>4950</v>
+        <v>4960</v>
       </c>
       <c r="I4">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="J4">
-        <v>6590</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>5314</v>
+        <v>5324</v>
       </c>
       <c r="C5">
-        <v>-1650</v>
+        <v>-1640</v>
       </c>
       <c r="D5">
-        <v>5034</v>
+        <v>5044</v>
       </c>
       <c r="E5">
-        <v>2892</v>
+        <v>2902</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>2404</v>
+        <v>2414</v>
       </c>
       <c r="H5">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="I5">
-        <v>8610</v>
+        <v>8620</v>
       </c>
       <c r="J5">
-        <v>10870</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>6132</v>
+        <v>6142</v>
       </c>
       <c r="C6">
-        <v>-454</v>
+        <v>-444</v>
       </c>
       <c r="D6">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="E6">
-        <v>6132</v>
+        <v>6142</v>
       </c>
       <c r="F6">
-        <v>6036</v>
+        <v>6046</v>
       </c>
       <c r="G6">
-        <v>-784</v>
+        <v>-774</v>
       </c>
       <c r="H6">
-        <v>-2086</v>
+        <v>-2076</v>
       </c>
       <c r="I6">
-        <v>5150</v>
+        <v>5160</v>
       </c>
       <c r="J6">
-        <v>10664</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>6898</v>
+        <v>6908</v>
       </c>
       <c r="C7">
-        <v>-1086</v>
+        <v>-1076</v>
       </c>
       <c r="D7">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="E7">
-        <v>6844</v>
+        <v>6854</v>
       </c>
       <c r="F7">
-        <v>5708</v>
+        <v>5718</v>
       </c>
       <c r="G7">
-        <v>-3120</v>
+        <v>-3110</v>
       </c>
       <c r="H7">
-        <v>-2276</v>
+        <v>-2266</v>
       </c>
       <c r="I7">
-        <v>9048</v>
+        <v>9058</v>
       </c>
       <c r="J7">
-        <v>13676</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>6204</v>
+        <v>6214</v>
       </c>
       <c r="C8">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D8">
-        <v>1418</v>
+        <v>1428</v>
       </c>
       <c r="E8">
-        <v>7996</v>
+        <v>8006</v>
       </c>
       <c r="F8">
-        <v>2882</v>
+        <v>2892</v>
       </c>
       <c r="G8">
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="H8">
-        <v>-678</v>
+        <v>-668</v>
       </c>
       <c r="I8">
-        <v>3194</v>
+        <v>3204</v>
       </c>
       <c r="J8">
-        <v>11692</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>6130</v>
+        <v>6140</v>
       </c>
       <c r="C9">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="D9">
-        <v>2222</v>
+        <v>2232</v>
       </c>
       <c r="E9">
-        <v>7882</v>
+        <v>7892</v>
       </c>
       <c r="F9">
-        <v>3542</v>
+        <v>3552</v>
       </c>
       <c r="G9">
-        <v>-642</v>
+        <v>-632</v>
       </c>
       <c r="H9">
-        <v>-1478</v>
+        <v>-1468</v>
       </c>
       <c r="I9">
-        <v>4632</v>
+        <v>4642</v>
       </c>
       <c r="J9">
-        <v>8394</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>5704</v>
+        <v>5714</v>
       </c>
       <c r="C10">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="D10">
-        <v>4312</v>
+        <v>4322</v>
       </c>
       <c r="E10">
-        <v>7254</v>
+        <v>7264</v>
       </c>
       <c r="F10">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="G10">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="H10">
-        <v>1828</v>
+        <v>1838</v>
       </c>
       <c r="I10">
-        <v>-1040</v>
+        <v>-1030</v>
       </c>
       <c r="J10">
-        <v>8954</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>7326</v>
+        <v>7336</v>
       </c>
       <c r="C11">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="D11">
-        <v>5508</v>
+        <v>5518</v>
       </c>
       <c r="E11">
-        <v>6262</v>
+        <v>6272</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="G11">
-        <v>3310</v>
+        <v>3320</v>
       </c>
       <c r="H11">
-        <v>-2126</v>
+        <v>-2116</v>
       </c>
       <c r="I11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J11">
-        <v>7844</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>6860</v>
+        <v>6870</v>
       </c>
       <c r="C12">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D12">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E12">
-        <v>5634</v>
+        <v>5644</v>
       </c>
       <c r="F12">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="G12">
-        <v>5654</v>
+        <v>5664</v>
       </c>
       <c r="H12">
-        <v>-3062</v>
+        <v>-3052</v>
       </c>
       <c r="I12">
-        <v>2548</v>
+        <v>2558</v>
       </c>
       <c r="J12">
-        <v>6242</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>5960</v>
+        <v>5970</v>
       </c>
       <c r="C13">
-        <v>-1346</v>
+        <v>-1336</v>
       </c>
       <c r="D13">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="E13">
-        <v>5360</v>
+        <v>5370</v>
       </c>
       <c r="F13">
-        <v>4772</v>
+        <v>4782</v>
       </c>
       <c r="G13">
-        <v>7942</v>
+        <v>7952</v>
       </c>
       <c r="H13">
-        <v>-502</v>
+        <v>-492</v>
       </c>
       <c r="I13">
-        <v>5704</v>
+        <v>5714</v>
       </c>
       <c r="J13">
-        <v>6248</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>7774</v>
+        <v>7784</v>
       </c>
       <c r="C14">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D14">
-        <v>2886</v>
+        <v>2896</v>
       </c>
       <c r="E14">
-        <v>4282</v>
+        <v>4292</v>
       </c>
       <c r="F14">
-        <v>6158</v>
+        <v>6168</v>
       </c>
       <c r="G14">
-        <v>9702</v>
+        <v>9712</v>
       </c>
       <c r="H14">
-        <v>-3274</v>
+        <v>-3264</v>
       </c>
       <c r="I14">
-        <v>6642</v>
+        <v>6652</v>
       </c>
       <c r="J14">
-        <v>5794</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>6992</v>
+        <v>7002</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D15">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="E15">
-        <v>5106</v>
+        <v>5116</v>
       </c>
       <c r="F15">
-        <v>7140</v>
+        <v>7150</v>
       </c>
       <c r="G15">
-        <v>8584</v>
+        <v>8594</v>
       </c>
       <c r="H15">
-        <v>-5250</v>
+        <v>-5240</v>
       </c>
       <c r="I15">
-        <v>5688</v>
+        <v>5698</v>
       </c>
       <c r="J15">
-        <v>7046</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>5200</v>
+        <v>5210</v>
       </c>
       <c r="C16">
-        <v>-1268</v>
+        <v>-1258</v>
       </c>
       <c r="D16">
-        <v>4798</v>
+        <v>4808</v>
       </c>
       <c r="E16">
-        <v>3274</v>
+        <v>3284</v>
       </c>
       <c r="F16">
-        <v>8906</v>
+        <v>8916</v>
       </c>
       <c r="G16">
-        <v>7920</v>
+        <v>7930</v>
       </c>
       <c r="H16">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="I16">
-        <v>4704</v>
+        <v>4714</v>
       </c>
       <c r="J16">
-        <v>7572</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>5808</v>
+        <v>5818</v>
       </c>
       <c r="C17">
-        <v>-516</v>
+        <v>-506</v>
       </c>
       <c r="D17">
-        <v>5664</v>
+        <v>5674</v>
       </c>
       <c r="E17">
-        <v>3538</v>
+        <v>3548</v>
       </c>
       <c r="F17">
-        <v>9656</v>
+        <v>9666</v>
       </c>
       <c r="G17">
-        <v>9186</v>
+        <v>9196</v>
       </c>
       <c r="H17">
-        <v>-398</v>
+        <v>-388</v>
       </c>
       <c r="I17">
-        <v>5916</v>
+        <v>5926</v>
       </c>
       <c r="J17">
-        <v>7864</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>6612</v>
+        <v>6622</v>
       </c>
       <c r="C18">
-        <v>-3642</v>
+        <v>-3632</v>
       </c>
       <c r="D18">
-        <v>5408</v>
+        <v>5418</v>
       </c>
       <c r="E18">
-        <v>4356</v>
+        <v>4366</v>
       </c>
       <c r="F18">
-        <v>10830</v>
+        <v>10840</v>
       </c>
       <c r="G18">
-        <v>12066</v>
+        <v>12076</v>
       </c>
       <c r="H18">
-        <v>-670</v>
+        <v>-660</v>
       </c>
       <c r="I18">
-        <v>6898</v>
+        <v>6908</v>
       </c>
       <c r="J18">
-        <v>7654</v>
+        <v>7664</v>
       </c>
     </row>
   </sheetData>
